--- a/avaliação.xlsx
+++ b/avaliação.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="K=1" sheetId="1" r:id="rId1"/>
     <sheet name="K=3" sheetId="2" r:id="rId2"/>
     <sheet name="K=5" sheetId="3" r:id="rId3"/>
+    <sheet name="K=7" sheetId="4" r:id="rId4"/>
+    <sheet name="K=11" sheetId="5" r:id="rId5"/>
+    <sheet name="K=21" sheetId="6" r:id="rId6"/>
+    <sheet name="K=51" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="257">
   <si>
     <t>acuracia</t>
   </si>
@@ -332,6 +336,471 @@
   </si>
   <si>
     <t>0.71354</t>
+  </si>
+  <si>
+    <t>0.71697</t>
+  </si>
+  <si>
+    <t>0.71694</t>
+  </si>
+  <si>
+    <t>0.71812</t>
+  </si>
+  <si>
+    <t>0.71778</t>
+  </si>
+  <si>
+    <t>0.73286</t>
+  </si>
+  <si>
+    <t>0.73279</t>
+  </si>
+  <si>
+    <t>0.73432</t>
+  </si>
+  <si>
+    <t>0.7337</t>
+  </si>
+  <si>
+    <t>0.72603</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.72667</t>
+  </si>
+  <si>
+    <t>0.73006</t>
+  </si>
+  <si>
+    <t>0.73001</t>
+  </si>
+  <si>
+    <t>0.73137</t>
+  </si>
+  <si>
+    <t>0.7309</t>
+  </si>
+  <si>
+    <t>47.76</t>
+  </si>
+  <si>
+    <t>0.73241</t>
+  </si>
+  <si>
+    <t>0.73237</t>
+  </si>
+  <si>
+    <t>0.73388</t>
+  </si>
+  <si>
+    <t>0.73339</t>
+  </si>
+  <si>
+    <t>0.7203</t>
+  </si>
+  <si>
+    <t>0.72167</t>
+  </si>
+  <si>
+    <t>0.72117</t>
+  </si>
+  <si>
+    <t>0.72769</t>
+  </si>
+  <si>
+    <t>0.72763</t>
+  </si>
+  <si>
+    <t>0.72911</t>
+  </si>
+  <si>
+    <t>0.72857</t>
+  </si>
+  <si>
+    <t>0.72889</t>
+  </si>
+  <si>
+    <t>0.72884</t>
+  </si>
+  <si>
+    <t>0.7302</t>
+  </si>
+  <si>
+    <t>0.72968</t>
+  </si>
+  <si>
+    <t>0.7315</t>
+  </si>
+  <si>
+    <t>0.73143</t>
+  </si>
+  <si>
+    <t>0.73323</t>
+  </si>
+  <si>
+    <t>0.73255</t>
+  </si>
+  <si>
+    <t>0.72191</t>
+  </si>
+  <si>
+    <t>0.72188</t>
+  </si>
+  <si>
+    <t>0.72282</t>
+  </si>
+  <si>
+    <t>0.72249</t>
+  </si>
+  <si>
+    <t>35.71</t>
+  </si>
+  <si>
+    <t>0.72686</t>
+  </si>
+  <si>
+    <t>0.72681</t>
+  </si>
+  <si>
+    <t>0.72817</t>
+  </si>
+  <si>
+    <t>0.72693</t>
+  </si>
+  <si>
+    <t>0.72692</t>
+  </si>
+  <si>
+    <t>0.72738</t>
+  </si>
+  <si>
+    <t>0.72726</t>
+  </si>
+  <si>
+    <t>0.73714</t>
+  </si>
+  <si>
+    <t>0.73712</t>
+  </si>
+  <si>
+    <t>0.73775</t>
+  </si>
+  <si>
+    <t>0.73753</t>
+  </si>
+  <si>
+    <t>0.73456</t>
+  </si>
+  <si>
+    <t>0.73455</t>
+  </si>
+  <si>
+    <t>0.73494</t>
+  </si>
+  <si>
+    <t>0.73481</t>
+  </si>
+  <si>
+    <t>0.74048</t>
+  </si>
+  <si>
+    <t>0.74046</t>
+  </si>
+  <si>
+    <t>0.74109</t>
+  </si>
+  <si>
+    <t>0.74084</t>
+  </si>
+  <si>
+    <t>0.73985</t>
+  </si>
+  <si>
+    <t>0.73984</t>
+  </si>
+  <si>
+    <t>0.74029</t>
+  </si>
+  <si>
+    <t>0.72837</t>
+  </si>
+  <si>
+    <t>0.72834</t>
+  </si>
+  <si>
+    <t>0.72913</t>
+  </si>
+  <si>
+    <t>0.72883</t>
+  </si>
+  <si>
+    <t>0.7382</t>
+  </si>
+  <si>
+    <t>0.73817</t>
+  </si>
+  <si>
+    <t>0.73884</t>
+  </si>
+  <si>
+    <t>0.73857</t>
+  </si>
+  <si>
+    <t>0.73696</t>
+  </si>
+  <si>
+    <t>0.73694</t>
+  </si>
+  <si>
+    <t>0.73749</t>
+  </si>
+  <si>
+    <t>0.73728</t>
+  </si>
+  <si>
+    <t>0.74303</t>
+  </si>
+  <si>
+    <t>0.74301</t>
+  </si>
+  <si>
+    <t>0.74364</t>
+  </si>
+  <si>
+    <t>0.74339</t>
+  </si>
+  <si>
+    <t>0.72832</t>
+  </si>
+  <si>
+    <t>0.72865</t>
+  </si>
+  <si>
+    <t>0.73539</t>
+  </si>
+  <si>
+    <t>0.73537</t>
+  </si>
+  <si>
+    <t>0.73596</t>
+  </si>
+  <si>
+    <t>0.73574</t>
+  </si>
+  <si>
+    <t>0.73675</t>
+  </si>
+  <si>
+    <t>0.73686</t>
+  </si>
+  <si>
+    <t>0.73683</t>
+  </si>
+  <si>
+    <t>36.62</t>
+  </si>
+  <si>
+    <t>0.74519</t>
+  </si>
+  <si>
+    <t>0.74533</t>
+  </si>
+  <si>
+    <t>0.74529</t>
+  </si>
+  <si>
+    <t>0.74152</t>
+  </si>
+  <si>
+    <t>0.74163</t>
+  </si>
+  <si>
+    <t>0.74159</t>
+  </si>
+  <si>
+    <t>36.55</t>
+  </si>
+  <si>
+    <t>0.75034</t>
+  </si>
+  <si>
+    <t>0.75033</t>
+  </si>
+  <si>
+    <t>0.75047</t>
+  </si>
+  <si>
+    <t>0.75041</t>
+  </si>
+  <si>
+    <t>0.7509</t>
+  </si>
+  <si>
+    <t>0.75107</t>
+  </si>
+  <si>
+    <t>0.75102</t>
+  </si>
+  <si>
+    <t>0.73803</t>
+  </si>
+  <si>
+    <t>0.73802</t>
+  </si>
+  <si>
+    <t>0.73826</t>
+  </si>
+  <si>
+    <t>0.73816</t>
+  </si>
+  <si>
+    <t>0.7458</t>
+  </si>
+  <si>
+    <t>0.74595</t>
+  </si>
+  <si>
+    <t>0.74589</t>
+  </si>
+  <si>
+    <t>0.74598</t>
+  </si>
+  <si>
+    <t>0.74597</t>
+  </si>
+  <si>
+    <t>0.7461</t>
+  </si>
+  <si>
+    <t>0.74604</t>
+  </si>
+  <si>
+    <t>0.74783</t>
+  </si>
+  <si>
+    <t>0.74798</t>
+  </si>
+  <si>
+    <t>0.74793</t>
+  </si>
+  <si>
+    <t>38.57</t>
+  </si>
+  <si>
+    <t>0.73729</t>
+  </si>
+  <si>
+    <t>0.73738</t>
+  </si>
+  <si>
+    <t>0.73734</t>
+  </si>
+  <si>
+    <t>0.74396</t>
+  </si>
+  <si>
+    <t>0.7441</t>
+  </si>
+  <si>
+    <t>0.74405</t>
+  </si>
+  <si>
+    <t>0.7446</t>
+  </si>
+  <si>
+    <t>0.75471</t>
+  </si>
+  <si>
+    <t>0.75472</t>
+  </si>
+  <si>
+    <t>0.74605</t>
+  </si>
+  <si>
+    <t>0.74606</t>
+  </si>
+  <si>
+    <t>0.75425</t>
+  </si>
+  <si>
+    <t>0.75958</t>
+  </si>
+  <si>
+    <t>0.75959</t>
+  </si>
+  <si>
+    <t>0.74355</t>
+  </si>
+  <si>
+    <t>0.74359</t>
+  </si>
+  <si>
+    <t>0.74357</t>
+  </si>
+  <si>
+    <t>0.75191</t>
+  </si>
+  <si>
+    <t>0.75105</t>
+  </si>
+  <si>
+    <t>0.75106</t>
+  </si>
+  <si>
+    <t>0.75515</t>
+  </si>
+  <si>
+    <t>0.75514</t>
+  </si>
+  <si>
+    <t>0.75516</t>
+  </si>
+  <si>
+    <t>39.38</t>
+  </si>
+  <si>
+    <t>0.7419</t>
+  </si>
+  <si>
+    <t>0.74191</t>
+  </si>
+  <si>
+    <t>0.75028</t>
+  </si>
+  <si>
+    <t>0.74607</t>
+  </si>
+  <si>
+    <t>0.74925</t>
+  </si>
+  <si>
+    <t>0.75603</t>
+  </si>
+  <si>
+    <t>0.76179</t>
+  </si>
+  <si>
+    <t>0.74662</t>
+  </si>
+  <si>
+    <t>0.75293</t>
+  </si>
+  <si>
+    <t>0.75183</t>
+  </si>
+  <si>
+    <t>0.75803</t>
+  </si>
+  <si>
+    <t>0.74341</t>
+  </si>
+  <si>
+    <t>0.75211</t>
   </si>
 </sst>
 </file>
@@ -367,9 +836,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,8 +1123,302 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>35466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1">
+        <v>36585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1">
+        <v>40298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1">
+        <v>36229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1">
+        <v>35385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1">
+        <v>36538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1">
+        <v>36515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1">
+        <v>36371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1">
+        <v>36224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="1">
+        <v>36719</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,295 +1468,6 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1">
-        <v>35466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1">
-        <v>36585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1">
-        <v>40298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1">
-        <v>36229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1">
-        <v>35385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1">
-        <v>36538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="1">
-        <v>36515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="1">
-        <v>36371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1">
-        <v>36224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="1">
-        <v>36719</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
@@ -1232,12 +1708,1562 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="1">
+        <v>39029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="1">
+        <v>40125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="1">
+        <v>38922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="1">
+        <v>77649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="1">
+        <v>37926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="1">
+        <v>55497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="1">
+        <v>37342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="1">
+        <v>36246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="1">
+        <v>36731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="1">
+        <v>37042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="1">
+        <v>36177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="1">
+        <v>37308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="1">
+        <v>39484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="1">
+        <v>38755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="1">
+        <v>36089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="1">
+        <v>37549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="1">
+        <v>36841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="1">
+        <v>37404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="1">
+        <v>37338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="3">
+        <v>37219</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="3">
+        <v>37141</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="3">
+        <v>36374</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="3">
+        <v>37201</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="3">
+        <v>36944</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="3">
+        <v>35576</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="3">
+        <v>38083</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" s="3">
+        <v>37028</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="1">
+        <v>36086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="1">
+        <v>38497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="1">
+        <v>41488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="1">
+        <v>42829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="1">
+        <v>37606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="1">
+        <v>37649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="1">
+        <v>40046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="1">
+        <v>39109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="1">
+        <v>36942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="1">
+        <v>38963</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="1">
+        <v>37549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="1">
+        <v>37233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="1">
+        <v>37347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="1">
+        <v>38548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="1">
+        <v>39026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="1">
+        <v>38081</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="1">
+        <v>37536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="1">
+        <v>36817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="1">
+        <v>36604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="1">
+        <v>36824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" t="s">
+        <v>256</v>
+      </c>
+      <c r="E23" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="1">
+        <v>37557</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>